--- a/data/test_result.xlsx
+++ b/data/test_result.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,14 +358,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>feature_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>update_time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LinearRegression</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{"copy_X": true, "fit_intercept": true, "n_jobs": null, "normalize": true}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20190810_194043</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/test_result.xlsx
+++ b/data/test_result.xlsx
@@ -369,12 +369,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>feature_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>feature_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -396,23 +396,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LinearRegression</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>RidgeRegression</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{"copy_X": true, "fit_intercept": true, "n_jobs": null, "normalize": true}</t>
+          <t>{"alpha": 2, "copy_X": true, "fit_intercept": true, "max_iter": null, "normalize": false, "random_state": null, "solver": "auto", "tol": 0.001}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20190810_194043</t>
+          <t>20190811_213043</t>
         </is>
       </c>
     </row>

--- a/data/test_result.xlsx
+++ b/data/test_result.xlsx
@@ -396,23 +396,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RidgeRegression</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{"alpha": 2, "copy_X": true, "fit_intercept": true, "max_iter": null, "normalize": false, "random_state": null, "solver": "auto", "tol": 0.001}</t>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20190811_213043</t>
+          <t>20190813_191837</t>
         </is>
       </c>
     </row>

--- a/data/test_result.xlsx
+++ b/data/test_result.xlsx
@@ -1,37 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\env\steam\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9352B6-1996-4CE5-ADD8-852E336C302E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+  <si>
+    <t>feature_name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+  </si>
+  <si>
+    <t>20190813_191837</t>
+  </si>
+  <si>
+    <t>20190814_132209</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Stacking_LinearRegression</t>
+  </si>
+  <si>
+    <t>20190814_194832</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20190814_194844</t>
+  </si>
+  <si>
+    <t>Stacking_SVR</t>
+  </si>
+  <si>
+    <t>20190814_194906</t>
+  </si>
+  <si>
+    <t>20190814_194918</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +116,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,70 +440,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>feature_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>update_time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20190813_191837</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/test_result.xlsx
+++ b/data/test_result.xlsx
@@ -1,107 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\env\steam\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9352B6-1996-4CE5-ADD8-852E336C302E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
-  <si>
-    <t>feature_name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>param</t>
-  </si>
-  <si>
-    <t>update_time</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
-  </si>
-  <si>
-    <t>20190813_191837</t>
-  </si>
-  <si>
-    <t>20190814_132209</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Stacking_LinearRegression</t>
-  </si>
-  <si>
-    <t>20190814_194832</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>20190814_194844</t>
-  </si>
-  <si>
-    <t>Stacking_SVR</t>
-  </si>
-  <si>
-    <t>20190814_194906</t>
-  </si>
-  <si>
-    <t>20190814_194918</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -116,43 +46,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -440,124 +353,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>update_time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20190813_191837</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20190814_132209</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>0.13750000000000001</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stacking_LinearRegression</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1392</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20190814_194832</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stacking_LinearRegression</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20190814_194844</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stacking_SVR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20190814_194906</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stacking_SVR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20190814_194918</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stacking_LinearRegression</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "RidgeRegression", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20190814_233757</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stacking_LinearRegression</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "RidgeRegression", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20190814_233809</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Stacking_SVR</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "RidgeRegression", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20190814_234233</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Stacking_SVR</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "RidgeRegression", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20190814_234246</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/test_result.xlsx
+++ b/data/test_result.xlsx
@@ -1,37 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\env\steam\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87BBEC8-E5D6-4CAF-9107-FCE449C8172F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+  <si>
+    <t>feature_name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+  </si>
+  <si>
+    <t>20190813_191837</t>
+  </si>
+  <si>
+    <t>20190814_132209</t>
+  </si>
+  <si>
+    <t>Stacking_LinearRegression</t>
+  </si>
+  <si>
+    <t>20190814_194832</t>
+  </si>
+  <si>
+    <t>20190814_194844</t>
+  </si>
+  <si>
+    <t>Stacking_SVR</t>
+  </si>
+  <si>
+    <t>20190814_194906</t>
+  </si>
+  <si>
+    <t>20190814_194918</t>
+  </si>
+  <si>
+    <t>["LinearRegression", "RidgeRegression", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+  </si>
+  <si>
+    <t>20190814_233757</t>
+  </si>
+  <si>
+    <t>20190814_233809</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20190814_234233</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20190814_234246</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +131,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,265 +455,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>feature_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>update_time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1375</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20190813_191837</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20190814_132209</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Stacking_LinearRegression</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1392</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20190814_194832</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Stacking_LinearRegression</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20190814_194844</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Stacking_SVR</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20190814_194906</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0.13919999999999999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Stacking_SVR</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20190814_194918</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Stacking_LinearRegression</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>["LinearRegression", "RidgeRegression", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20190814_233757</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Stacking_LinearRegression</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>["LinearRegression", "RidgeRegression", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20190814_233809</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Stacking_SVR</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>["LinearRegression", "RidgeRegression", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20190814_234233</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Stacking_SVR</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>["LinearRegression", "RidgeRegression", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>20190814_234246</t>
-        </is>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0.1411</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0.13489999999999999</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0.1411</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>